--- a/seasonal/gar_update.xlsx
+++ b/seasonal/gar_update.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t xml:space="preserve">iso3</t>
   </si>
@@ -44,7 +44,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">20 </t>
+      <t xml:space="preserve">25 </t>
     </r>
     <r>
       <rPr>
@@ -68,7 +68,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">25 </t>
+      <t xml:space="preserve">50 </t>
     </r>
     <r>
       <rPr>
@@ -81,8 +81,6 @@
       </rPr>
       <t xml:space="preserve">years</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -92,7 +90,68 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">50 </t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economic losses (in MILLION US$)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">100 </t>
     </r>
     <r>
       <rPr>
@@ -127,7 +186,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">100 </t>
+      <t xml:space="preserve">250 </t>
     </r>
     <r>
       <rPr>
@@ -162,7 +221,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">250 </t>
+      <t xml:space="preserve">500 </t>
     </r>
     <r>
       <rPr>
@@ -175,89 +234,6 @@
       </rPr>
       <t xml:space="preserve">years</t>
     </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">500 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">years</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economic losses (in MILLION US$)</t>
   </si>
   <si>
     <t xml:space="preserve">COM</t>
@@ -293,7 +269,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -352,12 +328,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -403,7 +373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,10 +398,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,13 +419,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -480,136 +446,127 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>1000000</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="F2" s="4" t="n">
         <v>1500000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>750000</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="F3" s="4" t="n">
         <v>800000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1500000</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="F4" s="4" t="n">
         <v>1500000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>350000</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="4" t="n">
         <v>450000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="F6" s="6" t="n">
+      <c r="E6" s="4" t="n">
         <v>350000</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="F6" s="4" t="n">
         <v>450000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>400000</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="F7" s="4" t="n">
         <v>650000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>200000</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="F8" s="4" t="n">
         <v>300000</v>
       </c>
     </row>
@@ -629,42 +586,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -686,257 +642,254 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>800</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="F3" s="4" t="n">
         <v>1500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>750</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="F5" s="4" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="F6" s="4" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
+      <c r="E7" s="4" t="n">
+        <v>1000</v>
+      </c>
       <c r="F7" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="4" t="n">
         <v>1500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="F8" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="F9" s="4" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>4.8</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>6.8</v>
+      </c>
       <c r="F10" s="0" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J10" s="0" t="n">
         <v>12.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>31.4</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>58.7</v>
+      </c>
       <c r="F11" s="0" t="n">
-        <v>58.7</v>
+        <v>83</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>83</v>
+        <v>115.8</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>115.8</v>
+        <v>146.3</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>146.3</v>
-      </c>
-      <c r="J11" s="0" t="n">
         <v>170.2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>100.5</v>
+      </c>
       <c r="F12" s="0" t="n">
-        <v>100.5</v>
+        <v>126.1</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>126.1</v>
+        <v>149.7</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="I12" s="0" t="n">
         <v>179.5</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="I12" s="4" t="n">
         <v>203.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>7.9</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>11.1</v>
+      </c>
       <c r="F13" s="0" t="n">
-        <v>11.1</v>
+        <v>13.4</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>13.4</v>
+        <v>15.9</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>15.9</v>
+        <v>18.6</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J13" s="0" t="n">
         <v>20.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="B1:U1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
